--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>${obj.categoryName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.batchNo}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -959,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>

--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O3")</t>
+          <t>jx:area(lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -177,6 +177,46 @@
   </si>
   <si>
     <t>${obj.batchNo}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>原库存成本价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.barCode}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.spec}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.unit}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.snapshootCostPrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.snapshootSalePrice}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI76"/>
+  <dimension ref="A1:EN76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,19 +669,19 @@
     <col min="2" max="2" width="18.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="16.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="5" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="9" width="15.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
+    <col min="11" max="15" width="16.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:144" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -659,11 +699,11 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -783,8 +823,13 @@
       <c r="EG1" s="3"/>
       <c r="EH1" s="3"/>
       <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
     </row>
-    <row r="2" spans="1:139" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:144" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -801,40 +846,50 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -954,8 +1009,13 @@
       <c r="EG2" s="3"/>
       <c r="EH2" s="3"/>
       <c r="EI2" s="3"/>
+      <c r="EJ2" s="3"/>
+      <c r="EK2" s="3"/>
+      <c r="EL2" s="3"/>
+      <c r="EM2" s="3"/>
+      <c r="EN2" s="3"/>
     </row>
-    <row r="3" spans="1:139" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:144" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -972,49 +1032,64 @@
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="N3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:139" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1152,7 @@
     <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T3")</t>
+          <t>jx:area(lastCell="T4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -217,13 +217,31 @@
   </si>
   <si>
     <t>${obj.snapshootSalePrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(K3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(L3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,12 +371,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,7 +467,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -659,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EN76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1166,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
     <row r="5" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="T3")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
@@ -223,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,12 +238,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,6 +253,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -256,22 +261,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -413,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN76"/>
+  <dimension ref="A1:EN75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1089,7 @@
     <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1149,7 +1158,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>

--- a/src/main/resources/template/excel/export/diffSearchDetail.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="T4")</t>
+          <t>jx:area(lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -217,21 +219,6 @@
   </si>
   <si>
     <t>${obj.snapshootSalePrice}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(L3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -239,9 +226,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,12 +238,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -267,6 +253,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -274,22 +261,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,83 +362,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -467,7 +387,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -502,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -746,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EN76"/>
+  <dimension ref="A1:EN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1166,39 +1086,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
+    <row r="4" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1267,7 +1158,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
